--- a/Code/Jupiter/Connect4/Logs/DQN/DQN-SelfPlay_L2-11400-TU-200-BS-128-training_summary.xlsx
+++ b/Code/Jupiter/Connect4/Logs/DQN/DQN-SelfPlay_L2-11400-TU-200-BS-128-training_summary.xlsx
@@ -493,13 +493,13 @@
         <v>0.6057704364907278</v>
       </c>
       <c r="E2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>20</v>
@@ -526,19 +526,19 @@
         <v>0.3669578217261671</v>
       </c>
       <c r="E3" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>96</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -559,19 +559,19 @@
         <v>0.8955</v>
       </c>
       <c r="E4" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F4" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>-4</v>
+        <v>-15.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -592,19 +592,19 @@
         <v>0.542467425877447</v>
       </c>
       <c r="E5" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F5" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -625,13 +625,13 @@
         <v>0.74625</v>
       </c>
       <c r="E6" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F6" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -658,19 +658,19 @@
         <v>0.4520561882312057</v>
       </c>
       <c r="E7" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F7" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -691,19 +691,19 @@
         <v>0.2738422744631521</v>
       </c>
       <c r="E8" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F8" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>0.72</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="9">
@@ -724,19 +724,19 @@
         <v>0.6965</v>
       </c>
       <c r="E9" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F9" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>28</v>
+        <v>0.6</v>
       </c>
       <c r="I9" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="10">
@@ -757,19 +757,19 @@
         <v>0.4219191090157921</v>
       </c>
       <c r="E10" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F10" t="n">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>36</v>
+        <v>-15.4</v>
       </c>
       <c r="I10" t="n">
-        <v>0.68</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
@@ -790,19 +790,19 @@
         <v>0.2555861228322754</v>
       </c>
       <c r="E11" t="n">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F11" t="n">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -823,19 +823,19 @@
         <v>0.64675</v>
       </c>
       <c r="E12" t="n">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F12" t="n">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>36</v>
+        <v>-42.8</v>
       </c>
       <c r="I12" t="n">
-        <v>0.68</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="13">
@@ -856,19 +856,19 @@
         <v>0.3917820298003785</v>
       </c>
       <c r="E13" t="n">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="F13" t="n">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>-12</v>
+        <v>-52</v>
       </c>
       <c r="I13" t="n">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="14">
@@ -889,19 +889,19 @@
         <v>0.2373299712013986</v>
       </c>
       <c r="E14" t="n">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="F14" t="n">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
@@ -922,19 +922,19 @@
         <v>0.597</v>
       </c>
       <c r="E15" t="n">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="F15" t="n">
-        <v>632</v>
+        <v>653</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15" t="n">
-        <v>-14.2</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="16">
@@ -955,19 +955,19 @@
         <v>0.3616449505849643</v>
       </c>
       <c r="E16" t="n">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="F16" t="n">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="G16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17">
@@ -988,19 +988,19 @@
         <v>0.2190738195705215</v>
       </c>
       <c r="E17" t="n">
-        <v>864</v>
+        <v>842</v>
       </c>
       <c r="F17" t="n">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="G17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H17" t="n">
-        <v>28</v>
+        <v>-12</v>
       </c>
       <c r="I17" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="18">
@@ -1017,19 +1017,19 @@
         <v>0.02</v>
       </c>
       <c r="E18" t="n">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="F18" t="n">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="G18" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H18" t="n">
-        <v>-23.4</v>
+        <v>0.6</v>
       </c>
       <c r="I18" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="19">
@@ -1046,19 +1046,19 @@
         <v>0.02</v>
       </c>
       <c r="E19" t="n">
-        <v>964</v>
+        <v>937</v>
       </c>
       <c r="F19" t="n">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="G19" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H19" t="n">
-        <v>28</v>
+        <v>54.4</v>
       </c>
       <c r="I19" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="20">
@@ -1075,19 +1075,19 @@
         <v>0.02</v>
       </c>
       <c r="E20" t="n">
-        <v>1030</v>
+        <v>993</v>
       </c>
       <c r="F20" t="n">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="G20" t="n">
+        <v>49</v>
+      </c>
+      <c r="H20" t="n">
         <v>28</v>
       </c>
-      <c r="H20" t="n">
-        <v>61.2</v>
-      </c>
       <c r="I20" t="n">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="21">
@@ -1108,19 +1108,19 @@
         <v>0.6965</v>
       </c>
       <c r="E21" t="n">
-        <v>1098</v>
+        <v>1049</v>
       </c>
       <c r="F21" t="n">
-        <v>867</v>
+        <v>893</v>
       </c>
       <c r="G21" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H21" t="n">
-        <v>48.6</v>
+        <v>-14.2</v>
       </c>
       <c r="I21" t="n">
-        <v>0.72</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="22">
@@ -1141,19 +1141,19 @@
         <v>0.4219191090157921</v>
       </c>
       <c r="E22" t="n">
-        <v>1150</v>
+        <v>1115</v>
       </c>
       <c r="F22" t="n">
-        <v>911</v>
+        <v>927</v>
       </c>
       <c r="G22" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H22" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I22" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23">
@@ -1174,19 +1174,19 @@
         <v>0.2555861228322754</v>
       </c>
       <c r="E23" t="n">
-        <v>1198</v>
+        <v>1174</v>
       </c>
       <c r="F23" t="n">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="G23" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="24">
@@ -1207,19 +1207,19 @@
         <v>0.64675</v>
       </c>
       <c r="E24" t="n">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="F24" t="n">
-        <v>1021</v>
+        <v>999</v>
       </c>
       <c r="G24" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H24" t="n">
-        <v>-36</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="25">
@@ -1240,19 +1240,19 @@
         <v>0.3917820298003785</v>
       </c>
       <c r="E25" t="n">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F25" t="n">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="G25" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="26">
@@ -1273,19 +1273,19 @@
         <v>0.2373299712013986</v>
       </c>
       <c r="E26" t="n">
-        <v>1368</v>
+        <v>1351</v>
       </c>
       <c r="F26" t="n">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G26" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H26" t="n">
-        <v>60</v>
+        <v>-10.8</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27">
@@ -1306,19 +1306,19 @@
         <v>0.597</v>
       </c>
       <c r="E27" t="n">
-        <v>1427</v>
+        <v>1408</v>
       </c>
       <c r="F27" t="n">
         <v>1127</v>
       </c>
       <c r="G27" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H27" t="n">
-        <v>36</v>
+        <v>-12</v>
       </c>
       <c r="I27" t="n">
-        <v>0.68</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="28">
@@ -1339,19 +1339,19 @@
         <v>0.3616449505849643</v>
       </c>
       <c r="E28" t="n">
-        <v>1480</v>
+        <v>1457</v>
       </c>
       <c r="F28" t="n">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="G28" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H28" t="n">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="I28" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29">
@@ -1372,19 +1372,19 @@
         <v>0.2190738195705215</v>
       </c>
       <c r="E29" t="n">
-        <v>1528</v>
+        <v>1512</v>
       </c>
       <c r="F29" t="n">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="G29" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H29" t="n">
-        <v>20</v>
+        <v>-12</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="30">
@@ -1405,19 +1405,19 @@
         <v>0.4975</v>
       </c>
       <c r="E30" t="n">
-        <v>1595</v>
+        <v>1569</v>
       </c>
       <c r="F30" t="n">
-        <v>1255</v>
+        <v>1263</v>
       </c>
       <c r="G30" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H30" t="n">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="I30" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1438,19 +1438,19 @@
         <v>0.3013707921541371</v>
       </c>
       <c r="E31" t="n">
-        <v>1660</v>
+        <v>1623</v>
       </c>
       <c r="F31" t="n">
-        <v>1290</v>
+        <v>1308</v>
       </c>
       <c r="G31" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H31" t="n">
-        <v>36</v>
+        <v>-12</v>
       </c>
       <c r="I31" t="n">
-        <v>0.68</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="32">
@@ -1471,19 +1471,19 @@
         <v>0.1825615163087681</v>
       </c>
       <c r="E32" t="n">
-        <v>1718</v>
+        <v>1674</v>
       </c>
       <c r="F32" t="n">
-        <v>1332</v>
+        <v>1356</v>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="I32" t="n">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33">
@@ -1500,19 +1500,19 @@
         <v>0.02</v>
       </c>
       <c r="E33" t="n">
-        <v>1782</v>
+        <v>1721</v>
       </c>
       <c r="F33" t="n">
-        <v>1368</v>
+        <v>1407</v>
       </c>
       <c r="G33" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H33" t="n">
-        <v>28</v>
+        <v>-7.4</v>
       </c>
       <c r="I33" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="34">
@@ -1529,19 +1529,19 @@
         <v>0.02</v>
       </c>
       <c r="E34" t="n">
-        <v>1847</v>
+        <v>1790</v>
       </c>
       <c r="F34" t="n">
-        <v>1389</v>
+        <v>1428</v>
       </c>
       <c r="G34" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="H34" t="n">
-        <v>29.4</v>
+        <v>60</v>
       </c>
       <c r="I34" t="n">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35">
@@ -1558,19 +1558,19 @@
         <v>0.02</v>
       </c>
       <c r="E35" t="n">
-        <v>1915</v>
+        <v>1865</v>
       </c>
       <c r="F35" t="n">
-        <v>1408</v>
+        <v>1449</v>
       </c>
       <c r="G35" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H35" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="36">
@@ -1591,19 +1591,19 @@
         <v>0.6965</v>
       </c>
       <c r="E36" t="n">
-        <v>2008</v>
+        <v>1926</v>
       </c>
       <c r="F36" t="n">
-        <v>1415</v>
+        <v>1472</v>
       </c>
       <c r="G36" t="n">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="H36" t="n">
-        <v>68</v>
+        <v>29.2</v>
       </c>
       <c r="I36" t="n">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="37">
@@ -1624,19 +1624,19 @@
         <v>0.4219191090157921</v>
       </c>
       <c r="E37" t="n">
-        <v>2061</v>
+        <v>1983</v>
       </c>
       <c r="F37" t="n">
-        <v>1461</v>
+        <v>1514</v>
       </c>
       <c r="G37" t="n">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="H37" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I37" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38">
@@ -1657,19 +1657,19 @@
         <v>0.2555861228322754</v>
       </c>
       <c r="E38" t="n">
-        <v>2108</v>
+        <v>2044</v>
       </c>
       <c r="F38" t="n">
-        <v>1512</v>
+        <v>1549</v>
       </c>
       <c r="G38" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H38" t="n">
-        <v>-4</v>
+        <v>29.2</v>
       </c>
       <c r="I38" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39">
@@ -1690,19 +1690,19 @@
         <v>0.1548265171890803</v>
       </c>
       <c r="E39" t="n">
-        <v>2166</v>
+        <v>2097</v>
       </c>
       <c r="F39" t="n">
-        <v>1554</v>
+        <v>1594</v>
       </c>
       <c r="G39" t="n">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="H39" t="n">
-        <v>12</v>
+        <v>24.6</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40">
@@ -1723,19 +1723,19 @@
         <v>0.64675</v>
       </c>
       <c r="E40" t="n">
-        <v>2225</v>
+        <v>2141</v>
       </c>
       <c r="F40" t="n">
-        <v>1595</v>
+        <v>1649</v>
       </c>
       <c r="G40" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="H40" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="41">
@@ -1756,19 +1756,19 @@
         <v>0.3917820298003785</v>
       </c>
       <c r="E41" t="n">
-        <v>2285</v>
+        <v>2196</v>
       </c>
       <c r="F41" t="n">
-        <v>1634</v>
+        <v>1694</v>
       </c>
       <c r="G41" t="n">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="H41" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I41" t="n">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1789,19 +1789,19 @@
         <v>0.2373299712013986</v>
       </c>
       <c r="E42" t="n">
-        <v>2331</v>
+        <v>2250</v>
       </c>
       <c r="F42" t="n">
-        <v>1685</v>
+        <v>1740</v>
       </c>
       <c r="G42" t="n">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I42" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="43">
@@ -1822,19 +1822,19 @@
         <v>0.1437674802470032</v>
       </c>
       <c r="E43" t="n">
-        <v>2379</v>
+        <v>2301</v>
       </c>
       <c r="F43" t="n">
-        <v>1735</v>
+        <v>1789</v>
       </c>
       <c r="G43" t="n">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="H43" t="n">
-        <v>-28</v>
+        <v>-12</v>
       </c>
       <c r="I43" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="44">
@@ -1855,19 +1855,19 @@
         <v>0.4975</v>
       </c>
       <c r="E44" t="n">
-        <v>2433</v>
+        <v>2362</v>
       </c>
       <c r="F44" t="n">
-        <v>1780</v>
+        <v>1825</v>
       </c>
       <c r="G44" t="n">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="H44" t="n">
-        <v>-7.4</v>
+        <v>44</v>
       </c>
       <c r="I44" t="n">
-        <v>0.44</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="45">
@@ -1888,19 +1888,19 @@
         <v>0.3013707921541371</v>
       </c>
       <c r="E45" t="n">
-        <v>2496</v>
+        <v>2417</v>
       </c>
       <c r="F45" t="n">
-        <v>1816</v>
+        <v>1870</v>
       </c>
       <c r="G45" t="n">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="H45" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I45" t="n">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1921,19 +1921,19 @@
         <v>0.1825615163087681</v>
       </c>
       <c r="E46" t="n">
-        <v>2546</v>
+        <v>2473</v>
       </c>
       <c r="F46" t="n">
-        <v>1866</v>
+        <v>1912</v>
       </c>
       <c r="G46" t="n">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="I46" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="47">
@@ -1954,19 +1954,19 @@
         <v>0.1105903694207716</v>
       </c>
       <c r="E47" t="n">
-        <v>2600</v>
+        <v>2531</v>
       </c>
       <c r="F47" t="n">
-        <v>1908</v>
+        <v>1952</v>
       </c>
       <c r="G47" t="n">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="H47" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I47" t="n">
-        <v>0.72</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1983,19 +1983,19 @@
         <v>0.02</v>
       </c>
       <c r="E48" t="n">
-        <v>2660</v>
+        <v>2589</v>
       </c>
       <c r="F48" t="n">
-        <v>1948</v>
+        <v>1994</v>
       </c>
       <c r="G48" t="n">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="H48" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -2012,19 +2012,19 @@
         <v>0.02</v>
       </c>
       <c r="E49" t="n">
-        <v>2715</v>
+        <v>2645</v>
       </c>
       <c r="F49" t="n">
-        <v>1992</v>
+        <v>2016</v>
       </c>
       <c r="G49" t="n">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="H49" t="n">
-        <v>24.6</v>
+        <v>51</v>
       </c>
       <c r="I49" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="50">
@@ -2041,19 +2041,19 @@
         <v>0.02</v>
       </c>
       <c r="E50" t="n">
-        <v>2762</v>
+        <v>2690</v>
       </c>
       <c r="F50" t="n">
-        <v>2033</v>
+        <v>2048</v>
       </c>
       <c r="G50" t="n">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="H50" t="n">
-        <v>-20</v>
+        <v>-42.8</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="51">
@@ -2070,19 +2070,19 @@
         <v>0.02</v>
       </c>
       <c r="E51" t="n">
-        <v>2818</v>
+        <v>2752</v>
       </c>
       <c r="F51" t="n">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="G51" t="n">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="H51" t="n">
-        <v>-12</v>
+        <v>38.4</v>
       </c>
       <c r="I51" t="n">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52">
@@ -2103,19 +2103,19 @@
         <v>0.1194</v>
       </c>
       <c r="E52" t="n">
-        <v>2886</v>
+        <v>2812</v>
       </c>
       <c r="F52" t="n">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="G52" t="n">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="H52" t="n">
-        <v>16.6</v>
+        <v>32.6</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="53">
@@ -2136,13 +2136,13 @@
         <v>0.07232899011699287</v>
       </c>
       <c r="E53" t="n">
-        <v>2936</v>
+        <v>2862</v>
       </c>
       <c r="F53" t="n">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="G53" t="n">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="H53" t="n">
         <v>4</v>
@@ -2169,19 +2169,19 @@
         <v>0.05</v>
       </c>
       <c r="E54" t="n">
-        <v>2985</v>
+        <v>2926</v>
       </c>
       <c r="F54" t="n">
-        <v>2202</v>
+        <v>2187</v>
       </c>
       <c r="G54" t="n">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="H54" t="n">
-        <v>-4</v>
+        <v>28</v>
       </c>
       <c r="I54" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="55">
@@ -2202,19 +2202,19 @@
         <v>0.05</v>
       </c>
       <c r="E55" t="n">
-        <v>3033</v>
+        <v>2987</v>
       </c>
       <c r="F55" t="n">
-        <v>2254</v>
+        <v>2225</v>
       </c>
       <c r="G55" t="n">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="H55" t="n">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="I55" t="n">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -2235,19 +2235,19 @@
         <v>0.398</v>
       </c>
       <c r="E56" t="n">
-        <v>3083</v>
+        <v>3046</v>
       </c>
       <c r="F56" t="n">
-        <v>2304</v>
+        <v>2265</v>
       </c>
       <c r="G56" t="n">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="H56" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="57">
@@ -2268,19 +2268,19 @@
         <v>0.2410966337233098</v>
       </c>
       <c r="E57" t="n">
-        <v>3142</v>
+        <v>3096</v>
       </c>
       <c r="F57" t="n">
-        <v>2345</v>
+        <v>2315</v>
       </c>
       <c r="G57" t="n">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I57" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -2301,19 +2301,19 @@
         <v>0.1460492130470145</v>
       </c>
       <c r="E58" t="n">
-        <v>3190</v>
+        <v>3144</v>
       </c>
       <c r="F58" t="n">
-        <v>2397</v>
+        <v>2367</v>
       </c>
       <c r="G58" t="n">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="H58" t="n">
-        <v>4</v>
+        <v>-12</v>
       </c>
       <c r="I58" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="59">
@@ -2334,19 +2334,19 @@
         <v>0.1</v>
       </c>
       <c r="E59" t="n">
-        <v>3246</v>
+        <v>3200</v>
       </c>
       <c r="F59" t="n">
-        <v>2441</v>
+        <v>2411</v>
       </c>
       <c r="G59" t="n">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="H59" t="n">
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="I59" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="60">
@@ -2367,19 +2367,19 @@
         <v>0.1</v>
       </c>
       <c r="E60" t="n">
-        <v>3300</v>
+        <v>3265</v>
       </c>
       <c r="F60" t="n">
-        <v>2486</v>
+        <v>2446</v>
       </c>
       <c r="G60" t="n">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="H60" t="n">
-        <v>24.6</v>
+        <v>44</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="61">
@@ -2400,19 +2400,19 @@
         <v>0.09950000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>3376</v>
+        <v>3316</v>
       </c>
       <c r="F61" t="n">
-        <v>2510</v>
+        <v>2495</v>
       </c>
       <c r="G61" t="n">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="H61" t="n">
-        <v>52</v>
+        <v>-4</v>
       </c>
       <c r="I61" t="n">
-        <v>0.76</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="62">
@@ -2433,19 +2433,19 @@
         <v>0.06027415843082746</v>
       </c>
       <c r="E62" t="n">
-        <v>3421</v>
+        <v>3356</v>
       </c>
       <c r="F62" t="n">
-        <v>2564</v>
+        <v>2555</v>
       </c>
       <c r="G62" t="n">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="H62" t="n">
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="I62" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="63">
@@ -2466,19 +2466,19 @@
         <v>0.05</v>
       </c>
       <c r="E63" t="n">
-        <v>3468</v>
+        <v>3406</v>
       </c>
       <c r="F63" t="n">
-        <v>2617</v>
+        <v>2604</v>
       </c>
       <c r="G63" t="n">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="H63" t="n">
-        <v>-20</v>
+        <v>-4</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="64">
@@ -2499,19 +2499,19 @@
         <v>0.05</v>
       </c>
       <c r="E64" t="n">
-        <v>3520</v>
+        <v>3459</v>
       </c>
       <c r="F64" t="n">
-        <v>2664</v>
+        <v>2649</v>
       </c>
       <c r="G64" t="n">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="H64" t="n">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="I64" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -2532,13 +2532,13 @@
         <v>0.64675</v>
       </c>
       <c r="E65" t="n">
-        <v>3574</v>
+        <v>3513</v>
       </c>
       <c r="F65" t="n">
-        <v>2710</v>
+        <v>2695</v>
       </c>
       <c r="G65" t="n">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="H65" t="n">
         <v>4</v>
@@ -2565,19 +2565,19 @@
         <v>0.3917820298003785</v>
       </c>
       <c r="E66" t="n">
-        <v>3628</v>
+        <v>3561</v>
       </c>
       <c r="F66" t="n">
-        <v>2755</v>
+        <v>2746</v>
       </c>
       <c r="G66" t="n">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="H66" t="n">
-        <v>24.6</v>
+        <v>-20</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="67">
@@ -2598,19 +2598,19 @@
         <v>0.2373299712013986</v>
       </c>
       <c r="E67" t="n">
-        <v>3691</v>
+        <v>3610</v>
       </c>
       <c r="F67" t="n">
-        <v>2792</v>
+        <v>2797</v>
       </c>
       <c r="G67" t="n">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="H67" t="n">
-        <v>44</v>
+        <v>-4</v>
       </c>
       <c r="I67" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="68">
@@ -2631,19 +2631,19 @@
         <v>0.15</v>
       </c>
       <c r="E68" t="n">
-        <v>3762</v>
+        <v>3673</v>
       </c>
       <c r="F68" t="n">
-        <v>2821</v>
+        <v>2834</v>
       </c>
       <c r="G68" t="n">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="H68" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I68" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="69">
@@ -2664,13 +2664,13 @@
         <v>0.15</v>
       </c>
       <c r="E69" t="n">
-        <v>3822</v>
+        <v>3732</v>
       </c>
       <c r="F69" t="n">
-        <v>2861</v>
+        <v>2875</v>
       </c>
       <c r="G69" t="n">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="H69" t="n">
         <v>4</v>
@@ -2697,19 +2697,19 @@
         <v>0.0796</v>
       </c>
       <c r="E70" t="n">
-        <v>3876</v>
+        <v>3779</v>
       </c>
       <c r="F70" t="n">
-        <v>2907</v>
+        <v>2928</v>
       </c>
       <c r="G70" t="n">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="H70" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="71">
@@ -2730,19 +2730,19 @@
         <v>0.05</v>
       </c>
       <c r="E71" t="n">
-        <v>3930</v>
+        <v>3827</v>
       </c>
       <c r="F71" t="n">
-        <v>2953</v>
+        <v>2980</v>
       </c>
       <c r="G71" t="n">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="H71" t="n">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="72">
@@ -2763,19 +2763,19 @@
         <v>0.05</v>
       </c>
       <c r="E72" t="n">
-        <v>3980</v>
+        <v>3888</v>
       </c>
       <c r="F72" t="n">
-        <v>3003</v>
+        <v>3019</v>
       </c>
       <c r="G72" t="n">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="H72" t="n">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="I72" t="n">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -2796,19 +2796,19 @@
         <v>0.05</v>
       </c>
       <c r="E73" t="n">
-        <v>4036</v>
+        <v>3939</v>
       </c>
       <c r="F73" t="n">
-        <v>3047</v>
+        <v>3067</v>
       </c>
       <c r="G73" t="n">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="H73" t="n">
-        <v>44</v>
+        <v>-4</v>
       </c>
       <c r="I73" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="74">
@@ -2825,19 +2825,19 @@
         <v>0.02</v>
       </c>
       <c r="E74" t="n">
-        <v>4083</v>
+        <v>4001</v>
       </c>
       <c r="F74" t="n">
-        <v>3100</v>
+        <v>3105</v>
       </c>
       <c r="G74" t="n">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="H74" t="n">
-        <v>-4</v>
+        <v>36</v>
       </c>
       <c r="I74" t="n">
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="75">
@@ -2854,19 +2854,19 @@
         <v>0.02</v>
       </c>
       <c r="E75" t="n">
-        <v>4156</v>
+        <v>4063</v>
       </c>
       <c r="F75" t="n">
-        <v>3120</v>
+        <v>3140</v>
       </c>
       <c r="G75" t="n">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="H75" t="n">
-        <v>60</v>
+        <v>-4</v>
       </c>
       <c r="I75" t="n">
-        <v>0.8</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="76">
@@ -2883,19 +2883,19 @@
         <v>0.02</v>
       </c>
       <c r="E76" t="n">
-        <v>4233</v>
+        <v>4108</v>
       </c>
       <c r="F76" t="n">
-        <v>3141</v>
+        <v>3189</v>
       </c>
       <c r="G76" t="n">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="H76" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="77">
@@ -2912,19 +2912,19 @@
         <v>0.02</v>
       </c>
       <c r="E77" t="n">
-        <v>4298</v>
+        <v>4168</v>
       </c>
       <c r="F77" t="n">
-        <v>3166</v>
+        <v>3213</v>
       </c>
       <c r="G77" t="n">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="H77" t="n">
-        <v>17.8</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="I77" t="n">
-        <v>0.52</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="78">
@@ -2945,19 +2945,19 @@
         <v>0.09950000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>4362</v>
+        <v>4228</v>
       </c>
       <c r="F78" t="n">
-        <v>3194</v>
+        <v>3249</v>
       </c>
       <c r="G78" t="n">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="H78" t="n">
-        <v>56.6</v>
+        <v>-28</v>
       </c>
       <c r="I78" t="n">
-        <v>0.76</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="79">
@@ -2978,19 +2978,19 @@
         <v>0.06027415843082746</v>
       </c>
       <c r="E79" t="n">
-        <v>4417</v>
+        <v>4283</v>
       </c>
       <c r="F79" t="n">
-        <v>3237</v>
+        <v>3293</v>
       </c>
       <c r="G79" t="n">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="H79" t="n">
-        <v>20</v>
+        <v>-7.4</v>
       </c>
       <c r="I79" t="n">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="80">
@@ -3011,19 +3011,19 @@
         <v>0.05</v>
       </c>
       <c r="E80" t="n">
-        <v>4465</v>
+        <v>4339</v>
       </c>
       <c r="F80" t="n">
-        <v>3289</v>
+        <v>3337</v>
       </c>
       <c r="G80" t="n">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="H80" t="n">
-        <v>-20</v>
+        <v>36</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="81">
@@ -3044,19 +3044,19 @@
         <v>0.05</v>
       </c>
       <c r="E81" t="n">
-        <v>4505</v>
+        <v>4393</v>
       </c>
       <c r="F81" t="n">
-        <v>3348</v>
+        <v>3383</v>
       </c>
       <c r="G81" t="n">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="H81" t="n">
-        <v>-36</v>
+        <v>-4</v>
       </c>
       <c r="I81" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="82">
@@ -3077,19 +3077,19 @@
         <v>0.0796</v>
       </c>
       <c r="E82" t="n">
-        <v>4555</v>
+        <v>4462</v>
       </c>
       <c r="F82" t="n">
-        <v>3398</v>
+        <v>3414</v>
       </c>
       <c r="G82" t="n">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="H82" t="n">
-        <v>-4</v>
+        <v>44</v>
       </c>
       <c r="I82" t="n">
-        <v>0.48</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="83">
@@ -3110,19 +3110,19 @@
         <v>0.05</v>
       </c>
       <c r="E83" t="n">
-        <v>4620</v>
+        <v>4518</v>
       </c>
       <c r="F83" t="n">
-        <v>3432</v>
+        <v>3458</v>
       </c>
       <c r="G83" t="n">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="H83" t="n">
-        <v>8.6</v>
+        <v>-4</v>
       </c>
       <c r="I83" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="84">
@@ -3143,19 +3143,19 @@
         <v>0.05</v>
       </c>
       <c r="E84" t="n">
-        <v>4673</v>
+        <v>4565</v>
       </c>
       <c r="F84" t="n">
-        <v>3479</v>
+        <v>3509</v>
       </c>
       <c r="G84" t="n">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I84" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="85">
@@ -3176,19 +3176,19 @@
         <v>0.05</v>
       </c>
       <c r="E85" t="n">
-        <v>4718</v>
+        <v>4607</v>
       </c>
       <c r="F85" t="n">
-        <v>3534</v>
+        <v>3565</v>
       </c>
       <c r="G85" t="n">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>-23.4</v>
       </c>
       <c r="I85" t="n">
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="86">
@@ -3209,19 +3209,19 @@
         <v>0.199</v>
       </c>
       <c r="E86" t="n">
-        <v>4763</v>
+        <v>4646</v>
       </c>
       <c r="F86" t="n">
-        <v>3589</v>
+        <v>3626</v>
       </c>
       <c r="G86" t="n">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="H86" t="n">
-        <v>-28</v>
+        <v>-36</v>
       </c>
       <c r="I86" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="87">
@@ -3242,13 +3242,13 @@
         <v>0.1205483168616549</v>
       </c>
       <c r="E87" t="n">
-        <v>4815</v>
+        <v>4694</v>
       </c>
       <c r="F87" t="n">
-        <v>3637</v>
+        <v>3678</v>
       </c>
       <c r="G87" t="n">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="H87" t="n">
         <v>-4</v>
@@ -3275,13 +3275,13 @@
         <v>0.08</v>
       </c>
       <c r="E88" t="n">
-        <v>4865</v>
+        <v>4743</v>
       </c>
       <c r="F88" t="n">
-        <v>3687</v>
+        <v>3729</v>
       </c>
       <c r="G88" t="n">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="H88" t="n">
         <v>-4</v>
@@ -3308,13 +3308,13 @@
         <v>0.08</v>
       </c>
       <c r="E89" t="n">
-        <v>4915</v>
+        <v>4793</v>
       </c>
       <c r="F89" t="n">
-        <v>3737</v>
+        <v>3779</v>
       </c>
       <c r="G89" t="n">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="H89" t="n">
         <v>-4</v>
@@ -3341,13 +3341,13 @@
         <v>0.1194</v>
       </c>
       <c r="E90" t="n">
-        <v>4965</v>
+        <v>4843</v>
       </c>
       <c r="F90" t="n">
-        <v>3787</v>
+        <v>3829</v>
       </c>
       <c r="G90" t="n">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="H90" t="n">
         <v>-4</v>
@@ -3374,19 +3374,19 @@
         <v>0.07232899011699287</v>
       </c>
       <c r="E91" t="n">
-        <v>5025</v>
+        <v>4902</v>
       </c>
       <c r="F91" t="n">
-        <v>3827</v>
+        <v>3870</v>
       </c>
       <c r="G91" t="n">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="H91" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="92">
@@ -3407,19 +3407,19 @@
         <v>0.05</v>
       </c>
       <c r="E92" t="n">
-        <v>5080</v>
+        <v>4960</v>
       </c>
       <c r="F92" t="n">
-        <v>3872</v>
+        <v>3912</v>
       </c>
       <c r="G92" t="n">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="H92" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I92" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="93">
@@ -3440,19 +3440,19 @@
         <v>0.05</v>
       </c>
       <c r="E93" t="n">
-        <v>5137</v>
+        <v>5012</v>
       </c>
       <c r="F93" t="n">
-        <v>3915</v>
+        <v>3960</v>
       </c>
       <c r="G93" t="n">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="H93" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I93" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="94">
@@ -3473,19 +3473,19 @@
         <v>0.05</v>
       </c>
       <c r="E94" t="n">
-        <v>5196</v>
+        <v>5064</v>
       </c>
       <c r="F94" t="n">
-        <v>3956</v>
+        <v>4008</v>
       </c>
       <c r="G94" t="n">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="H94" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I94" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="95">
@@ -3506,19 +3506,19 @@
         <v>0.14925</v>
       </c>
       <c r="E95" t="n">
-        <v>5252</v>
+        <v>5112</v>
       </c>
       <c r="F95" t="n">
-        <v>4000</v>
+        <v>4059</v>
       </c>
       <c r="G95" t="n">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="H95" t="n">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="96">
@@ -3539,19 +3539,19 @@
         <v>0.09041123764624108</v>
       </c>
       <c r="E96" t="n">
-        <v>5298</v>
+        <v>5162</v>
       </c>
       <c r="F96" t="n">
-        <v>4054</v>
+        <v>4107</v>
       </c>
       <c r="G96" t="n">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="H96" t="n">
-        <v>-4</v>
+        <v>16.6</v>
       </c>
       <c r="I96" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -3572,13 +3572,13 @@
         <v>0.05476845489263037</v>
       </c>
       <c r="E97" t="n">
-        <v>5353</v>
+        <v>5216</v>
       </c>
       <c r="F97" t="n">
-        <v>4098</v>
+        <v>4153</v>
       </c>
       <c r="G97" t="n">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="H97" t="n">
         <v>12</v>
@@ -3605,19 +3605,19 @@
         <v>0.05</v>
       </c>
       <c r="E98" t="n">
-        <v>5402</v>
+        <v>5272</v>
       </c>
       <c r="F98" t="n">
-        <v>4149</v>
+        <v>4197</v>
       </c>
       <c r="G98" t="n">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="H98" t="n">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="I98" t="n">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="99">
@@ -3638,19 +3638,19 @@
         <v>0.0796</v>
       </c>
       <c r="E99" t="n">
-        <v>5445</v>
+        <v>5314</v>
       </c>
       <c r="F99" t="n">
-        <v>4206</v>
+        <v>4255</v>
       </c>
       <c r="G99" t="n">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="H99" t="n">
-        <v>-36</v>
+        <v>-28</v>
       </c>
       <c r="I99" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="100">
@@ -3671,19 +3671,19 @@
         <v>0.05</v>
       </c>
       <c r="E100" t="n">
-        <v>5494</v>
+        <v>5364</v>
       </c>
       <c r="F100" t="n">
-        <v>4257</v>
+        <v>4305</v>
       </c>
       <c r="G100" t="n">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I100" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="101">
@@ -3704,19 +3704,19 @@
         <v>0.05</v>
       </c>
       <c r="E101" t="n">
-        <v>5545</v>
+        <v>5410</v>
       </c>
       <c r="F101" t="n">
-        <v>4306</v>
+        <v>4358</v>
       </c>
       <c r="G101" t="n">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="H101" t="n">
-        <v>-4</v>
+        <v>-15.4</v>
       </c>
       <c r="I101" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="102">
@@ -3737,13 +3737,13 @@
         <v>0.05</v>
       </c>
       <c r="E102" t="n">
-        <v>5595</v>
+        <v>5458</v>
       </c>
       <c r="F102" t="n">
-        <v>4356</v>
+        <v>4410</v>
       </c>
       <c r="G102" t="n">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="H102" t="n">
         <v>-4</v>
@@ -3770,13 +3770,13 @@
         <v>0.0597</v>
       </c>
       <c r="E103" t="n">
-        <v>5644</v>
+        <v>5506</v>
       </c>
       <c r="F103" t="n">
-        <v>4406</v>
+        <v>4462</v>
       </c>
       <c r="G103" t="n">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="H103" t="n">
         <v>-4</v>
@@ -3803,19 +3803,19 @@
         <v>0.05</v>
       </c>
       <c r="E104" t="n">
-        <v>5689</v>
+        <v>5563</v>
       </c>
       <c r="F104" t="n">
-        <v>4461</v>
+        <v>4505</v>
       </c>
       <c r="G104" t="n">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="H104" t="n">
-        <v>-4</v>
+        <v>28</v>
       </c>
       <c r="I104" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="105">
@@ -3836,19 +3836,19 @@
         <v>0.05</v>
       </c>
       <c r="E105" t="n">
-        <v>5737</v>
+        <v>5616</v>
       </c>
       <c r="F105" t="n">
-        <v>4513</v>
+        <v>4552</v>
       </c>
       <c r="G105" t="n">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="H105" t="n">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="I105" t="n">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="106">
@@ -3869,19 +3869,19 @@
         <v>0.05</v>
       </c>
       <c r="E106" t="n">
-        <v>5791</v>
+        <v>5667</v>
       </c>
       <c r="F106" t="n">
-        <v>4558</v>
+        <v>4599</v>
       </c>
       <c r="G106" t="n">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="H106" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="I106" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="107">
@@ -3902,13 +3902,13 @@
         <v>0.05</v>
       </c>
       <c r="E107" t="n">
-        <v>5849</v>
+        <v>5725</v>
       </c>
       <c r="F107" t="n">
-        <v>4600</v>
+        <v>4641</v>
       </c>
       <c r="G107" t="n">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="H107" t="n">
         <v>4</v>
@@ -3935,13 +3935,13 @@
         <v>0.05</v>
       </c>
       <c r="E108" t="n">
-        <v>5901</v>
+        <v>5776</v>
       </c>
       <c r="F108" t="n">
-        <v>4648</v>
+        <v>4690</v>
       </c>
       <c r="G108" t="n">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="H108" t="n">
         <v>-12</v>
@@ -3964,19 +3964,19 @@
         <v>0.02</v>
       </c>
       <c r="E109" t="n">
-        <v>5946</v>
+        <v>5826</v>
       </c>
       <c r="F109" t="n">
-        <v>4703</v>
+        <v>4740</v>
       </c>
       <c r="G109" t="n">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="H109" t="n">
-        <v>-28</v>
+        <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="110">
@@ -3993,19 +3993,19 @@
         <v>0.02</v>
       </c>
       <c r="E110" t="n">
-        <v>5994</v>
+        <v>5883</v>
       </c>
       <c r="F110" t="n">
-        <v>4740</v>
+        <v>4778</v>
       </c>
       <c r="G110" t="n">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="H110" t="n">
-        <v>17.8</v>
+        <v>14.4</v>
       </c>
       <c r="I110" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="111">
@@ -4022,19 +4022,19 @@
         <v>0.02</v>
       </c>
       <c r="E111" t="n">
-        <v>6048</v>
+        <v>5936</v>
       </c>
       <c r="F111" t="n">
-        <v>4749</v>
+        <v>4818</v>
       </c>
       <c r="G111" t="n">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="H111" t="n">
-        <v>60.2</v>
+        <v>-12</v>
       </c>
       <c r="I111" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="112">
@@ -4051,19 +4051,19 @@
         <v>0.02</v>
       </c>
       <c r="E112" t="n">
-        <v>6092</v>
+        <v>5997</v>
       </c>
       <c r="F112" t="n">
-        <v>4786</v>
+        <v>4856</v>
       </c>
       <c r="G112" t="n">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="H112" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="I112" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="113">
@@ -4080,19 +4080,19 @@
         <v>0.02</v>
       </c>
       <c r="E113" t="n">
-        <v>6149</v>
+        <v>6063</v>
       </c>
       <c r="F113" t="n">
-        <v>4823</v>
+        <v>4883</v>
       </c>
       <c r="G113" t="n">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="H113" t="n">
-        <v>46.4</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I113" t="n">
-        <v>0.64</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="114">
@@ -4109,19 +4109,19 @@
         <v>0.02</v>
       </c>
       <c r="E114" t="n">
-        <v>6218</v>
+        <v>6122</v>
       </c>
       <c r="F114" t="n">
-        <v>4833</v>
+        <v>4910</v>
       </c>
       <c r="G114" t="n">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="H114" t="n">
-        <v>80.59999999999999</v>
+        <v>42</v>
       </c>
       <c r="I114" t="n">
-        <v>0.88</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
